--- a/biology/Biochimie/EF-G/EF-G.xlsx
+++ b/biology/Biochimie/EF-G/EF-G.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine EF-G est un facteur d'élongation de procaryotes autrefois appelé translocase. Il s'agit d'une GTPase qui agit en provoquant le transfert du peptidyl-ARN de transfert (ARNt) du site A (pour Acide aminé) sur la sous-unité ribosomique 30S vers une position intermédiaire avec le site P (pour Peptide) sur la sous-unité ribosomique 50S, tandis que l'ARNt qui occupait ce site est poussé vers une position intermédiaire avec le site E (pour Exit en anglais). L'hydrolyse du GTP en GDP et phosphate induit un changement conformationnel à travers la protéine EF-G qui pousse le peptidyl-ARNt dans le site P et l'autre ARNt dans le site E, ce qui le libère du ribosome, ce qui a pour effet de décaler l'ARN messager de trois nucléotides puisqu'il demeure lié au peptidyl-ARNt. De ce fait, le site A est libre pour accueillir un nouvel aminoacyl-ARNt en face du codon adjacent au précédent. 
-La protéine EF-G est généralement inhibée par l'acide fusidique, mais des résistances sont apparues[1],[2].
+La protéine EF-G est généralement inhibée par l'acide fusidique, mais des résistances sont apparues,.
 L'homologue de EF-G chez les eucaryotes est eEF2.
 </t>
         </is>
